--- a/IO_sample6.xlsx
+++ b/IO_sample6.xlsx
@@ -111,10 +111,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E125"/>
+  <dimension ref="A1:E126"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A110" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A126" activeCellId="0" sqref="A126:E148"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -161,7 +161,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -231,7 +231,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -511,7 +511,7 @@
         <v>0.8</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1870,6 +1870,20 @@
       </c>
       <c r="E125" s="0" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B126" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C126" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E126" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
